--- a/data/outputs/OR_elsevier/45.xlsx
+++ b/data/outputs/OR_elsevier/45.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS55"/>
+  <dimension ref="A1:BU55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84941905276</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1160,6 +1176,12 @@
           <t>2-s2.0-84937162782</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1387,6 +1409,12 @@
           <t>2-s2.0-84941929635</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1606,6 +1634,12 @@
           <t>2-s2.0-84928707843</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1820,6 +1854,12 @@
         <is>
           <t>2-s2.0-84937163586</t>
         </is>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -2030,6 +2070,12 @@
           <t>2-s2.0-84924548666</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2245,6 +2291,12 @@
           <t>2-s2.0-84937162836</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2464,6 +2516,12 @@
           <t>2-s2.0-84941906958</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2691,6 +2749,12 @@
           <t>2-s2.0-84928762514</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2914,6 +2978,12 @@
           <t>2-s2.0-84955593929</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3129,6 +3199,12 @@
           <t>2-s2.0-84921028462</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3355,6 +3431,12 @@
         <is>
           <t>2-s2.0-84941888172</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3559,6 +3641,12 @@
           <t>2-s2.0-84924631781</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3766,6 +3854,12 @@
           <t>2-s2.0-84955578885</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3988,6 +4082,12 @@
         <is>
           <t>2-s2.0-84941943051</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -4196,6 +4296,12 @@
           <t>2-s2.0-84937163753</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4423,6 +4529,12 @@
           <t>2-s2.0-84928766451</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4638,6 +4750,12 @@
           <t>2-s2.0-84924612891</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4861,6 +4979,12 @@
           <t>2-s2.0-84937164318</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5084,6 +5208,12 @@
           <t>2-s2.0-84921067131</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5307,6 +5437,12 @@
           <t>2-s2.0-84921066514</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5518,6 +5654,12 @@
           <t>2-s2.0-84921069323</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5733,6 +5875,12 @@
           <t>2-s2.0-84955672006</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5948,6 +6096,12 @@
           <t>2-s2.0-85027941280</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6163,6 +6317,12 @@
           <t>2-s2.0-84924550781</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6381,6 +6541,12 @@
         <is>
           <t>2-s2.0-84921068942</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -6589,6 +6755,12 @@
           <t>2-s2.0-84955565599</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6804,6 +6976,12 @@
           <t>2-s2.0-84955565691</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7027,6 +7205,12 @@
           <t>2-s2.0-84941911782</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7237,6 +7421,12 @@
         <is>
           <t>2-s2.0-84937160339</t>
         </is>
+      </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -7449,6 +7639,12 @@
           <t>2-s2.0-84928765127</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7668,6 +7864,12 @@
           <t>2-s2.0-84928653921</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7895,6 +8097,12 @@
           <t>2-s2.0-84928769310</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8110,6 +8318,12 @@
           <t>2-s2.0-84921068822</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8325,6 +8539,12 @@
           <t>2-s2.0-84955639119</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8540,6 +8760,12 @@
           <t>2-s2.0-84955579295</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8759,6 +8985,12 @@
           <t>2-s2.0-84937164404</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8986,6 +9218,12 @@
           <t>2-s2.0-84928680305</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9201,6 +9439,12 @@
           <t>2-s2.0-84955604930</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9416,6 +9660,12 @@
           <t>2-s2.0-84955713204</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9630,6 +9880,12 @@
         <is>
           <t>2-s2.0-84955581163</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -9834,6 +10090,12 @@
           <t>2-s2.0-84941908721</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10049,6 +10311,12 @@
           <t>2-s2.0-84955655726</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10264,6 +10532,12 @@
           <t>2-s2.0-84955737506</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10479,6 +10753,12 @@
           <t>2-s2.0-84955587592</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10700,6 +10980,12 @@
           <t>2-s2.0-84937114481</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10910,6 +11196,12 @@
         <is>
           <t>2-s2.0-84921069438</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -11118,6 +11410,12 @@
           <t>2-s2.0-84937161615</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11325,6 +11623,12 @@
           <t>2-s2.0-84937161478</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11532,6 +11836,12 @@
           <t>2-s2.0-84937163580</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11739,6 +12049,12 @@
           <t>2-s2.0-84924584904</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11962,6 +12278,12 @@
           <t>2-s2.0-84955688388</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12177,6 +12499,12 @@
           <t>2-s2.0-84924606972</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12388,6 +12716,12 @@
           <t>2-s2.0-84921068165</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
